--- a/medicine/Mort/La_Mort_de_Louis_XIV/La_Mort_de_Louis_XIV.xlsx
+++ b/medicine/Mort/La_Mort_de_Louis_XIV/La_Mort_de_Louis_XIV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort de Louis XIV est un drame historique franco-espagnol coécrit, coproduit, réalisé et monté par Albert Serra, sorti en 2016. Relatant la mort de Louis XIV, roi de France et de Navarre, il est présenté en « Séances spéciales » au Festival de Cannes 2016.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atteint d'un mal mystérieux à la jambe, Louis XIV est peu à peu contraint de garder le lit. Ses médecins reconnaissent trop tard que son corps est pris par la gangrène et une pénible agonie le mène jusqu'à la mort.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : La Mort de Louis XIV
 Titre international : The Death of Louis XIV
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Pierre Léaud : Louis XIV
 Bernard Belin : Mareschal, le chirurgien
@@ -631,11 +649,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sorties
-La Mort de Louis XIV est sélectionné en « Séances spéciales » et projeté le 19 mai 2016 au Festival de Cannes, avant sa sortie nationale le 2 novembre 2016 en France.
-Accueil critique
-Charlotte Garson note dans le mensuel Études no 4232 de novembre 2016 -revue de culture contemporaine- que « Serra excelle à faire cohabiter, dans son huis clos, passé, présent et avenir de la monarchie » et que « la fiction d'époque le dispute au documentaire sur l'acteur Jean-Pierre Léaud, qui est à l'histoire de la Nouvelle vague l'équivalent du Roi Soleil ».
-Box-office</t>
+          <t>Sorties</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Mort de Louis XIV est sélectionné en « Séances spéciales » et projeté le 19 mai 2016 au Festival de Cannes, avant sa sortie nationale le 2 novembre 2016 en France.
+</t>
         </is>
       </c>
     </row>
@@ -660,21 +681,97 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlotte Garson note dans le mensuel Études no 4232 de novembre 2016 -revue de culture contemporaine- que « Serra excelle à faire cohabiter, dans son huis clos, passé, présent et avenir de la monarchie » et que « la fiction d'époque le dispute au documentaire sur l'acteur Jean-Pierre Léaud, qui est à l'histoire de la Nouvelle vague l'équivalent du Roi Soleil ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Mort_de_Louis_XIV</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mort_de_Louis_XIV</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Récompenses
-Festival international du film de Jérusalem 2016 : « International Competition »
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival international du film de Jérusalem 2016 : « International Competition »
 Haggiag du meilleur film international pour Albert Serra
 The Wilf Family Foundation Award du meilleur film international pour Albert Serra
-Prix Jean Vigo 2016 du long-métrage pour Albert Serra[1]
+Prix Jean Vigo 2016 du long-métrage pour Albert Serra
 Prix Lumières 2017 :
 Meilleur acteur pour Jean-Pierre Léaud
-Meilleure photographie pour Jonathan Ricquebourg
-Nominations et sélections
-Festival international du film de Busan 2016 : « World Cinema »
+Meilleure photographie pour Jonathan Ricquebourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Mort_de_Louis_XIV</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mort_de_Louis_XIV</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival international du film de Busan 2016 : « World Cinema »
 Festival de Cannes 2016 : « Séances spéciales »
 Festival du film de Londres 2016 : « Dare »
 Festival international du film de Melbourne 2016 : « Films Français sélectionnés »
